--- a/museum/AmRevExhibit.xlsx
+++ b/museum/AmRevExhibit.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gove\code\documents\museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gove\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBBF7C4-A375-4C21-9F6C-FCB0AE98684A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F2B38A-0245-4859-9F0E-CD505D5F0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51870" yWindow="-7725" windowWidth="50865" windowHeight="21990" xr2:uid="{76BEE644-0423-42E6-9B8D-3E07BFA2CDB1}"/>
+    <workbookView xWindow="-52065" yWindow="-9225" windowWidth="46050" windowHeight="21090" xr2:uid="{76BEE644-0423-42E6-9B8D-3E07BFA2CDB1}"/>
   </bookViews>
   <sheets>
     <sheet name="exhibit_item" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="curl">#REF!</definedName>
     <definedName name="endrow">#REF!</definedName>
@@ -2563,29 +2560,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="item"/>
-      <sheetName val="Owners"/>
-      <sheetName val="insurance"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="items"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2927,44 +2901,44 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="75.28515625" customWidth="1"/>
-    <col min="12" max="12" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.33203125" customWidth="1"/>
+    <col min="12" max="12" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="110.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3139,7 +3113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -3222,7 +3196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -3305,7 +3279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3391,9 +3365,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8755</v>
+        <v>9063</v>
       </c>
       <c r="B6" t="s">
         <v>115</v>
@@ -3477,7 +3451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -3566,7 +3540,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -3655,7 +3629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3738,7 +3712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -3827,7 +3801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -3913,7 +3887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -4002,7 +3976,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>48565</v>
       </c>
@@ -4085,7 +4059,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -4171,7 +4145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -4257,7 +4231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9063</v>
       </c>
@@ -4343,7 +4317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>272</v>
       </c>
@@ -4432,7 +4406,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>282</v>
       </c>
@@ -4518,7 +4492,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4607,7 +4581,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -4693,7 +4667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4776,7 +4750,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>329</v>
       </c>
@@ -4859,7 +4833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>336</v>
       </c>
@@ -4945,7 +4919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>342</v>
       </c>
@@ -5028,7 +5002,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>353</v>
       </c>
@@ -5117,7 +5091,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>48556</v>
       </c>
@@ -5203,7 +5177,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>367</v>
       </c>
@@ -5289,7 +5263,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>49521</v>
       </c>
@@ -5375,7 +5349,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>381</v>
       </c>
@@ -5461,7 +5435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>401</v>
       </c>
@@ -5547,7 +5521,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>422</v>
       </c>
@@ -5633,7 +5607,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>437</v>
       </c>
@@ -5719,7 +5693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>446</v>
       </c>
@@ -5805,7 +5779,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>453</v>
       </c>
@@ -5894,7 +5868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -5983,7 +5957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>468</v>
       </c>
@@ -6066,7 +6040,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>478</v>
       </c>
@@ -6149,7 +6123,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>499</v>
       </c>
@@ -6232,7 +6206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>507</v>
       </c>
@@ -6315,7 +6289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>512</v>
       </c>
@@ -6398,7 +6372,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>518</v>
       </c>
@@ -6487,7 +6461,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>526</v>
       </c>
@@ -6573,7 +6547,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>544</v>
       </c>
@@ -6656,7 +6630,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>551</v>
       </c>
@@ -6742,7 +6716,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>558</v>
       </c>
@@ -6828,7 +6802,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>564</v>
       </c>
@@ -6911,7 +6885,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>571</v>
       </c>
@@ -6997,7 +6971,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>580</v>
       </c>
@@ -7083,7 +7057,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>585</v>
       </c>
@@ -7172,7 +7146,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>591</v>
       </c>
@@ -7258,7 +7232,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>597</v>
       </c>
@@ -7344,7 +7318,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>604</v>
       </c>
@@ -7430,7 +7404,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>613</v>
       </c>
@@ -7516,7 +7490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>620</v>
       </c>
@@ -7599,7 +7573,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>627</v>
       </c>
@@ -7688,7 +7662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>637</v>
       </c>
@@ -7771,7 +7745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>643</v>
       </c>
@@ -7860,7 +7834,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>650</v>
       </c>
@@ -7949,7 +7923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>658</v>
       </c>
@@ -8032,7 +8006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>663</v>
       </c>
@@ -8118,7 +8092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>671</v>
       </c>
@@ -8204,7 +8178,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>679</v>
       </c>
@@ -8287,7 +8261,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>688</v>
       </c>
@@ -8373,7 +8347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>696</v>
       </c>
@@ -8459,7 +8433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>703</v>
       </c>
@@ -8542,7 +8516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>709</v>
       </c>
@@ -8628,7 +8602,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>715</v>
       </c>
@@ -8711,7 +8685,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -8797,7 +8771,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>732</v>
       </c>
@@ -8883,7 +8857,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>739</v>
       </c>
@@ -8972,7 +8946,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>748</v>
       </c>
@@ -9058,7 +9032,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>754</v>
       </c>
@@ -9141,7 +9115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>762</v>
       </c>
@@ -9224,7 +9198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>767</v>
       </c>
@@ -9307,7 +9281,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>775</v>
       </c>
@@ -9390,7 +9364,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>781</v>
       </c>
@@ -9476,7 +9450,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>787</v>
       </c>
@@ -9562,7 +9536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>792</v>
       </c>
@@ -9651,7 +9625,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>10023</v>
       </c>
@@ -9737,7 +9711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>804</v>
       </c>
@@ -9820,7 +9794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>811</v>
       </c>
@@ -9903,7 +9877,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>817</v>
       </c>
